--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.89450235740602</v>
+        <v>6.017675333333333</v>
       </c>
       <c r="H2">
-        <v>4.89450235740602</v>
+        <v>18.053026</v>
       </c>
       <c r="I2">
-        <v>0.05903330442224272</v>
+        <v>0.06823369140492158</v>
       </c>
       <c r="J2">
-        <v>0.05903330442224272</v>
+        <v>0.0682336914049216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.14773573248182</v>
+        <v>0.192031</v>
       </c>
       <c r="N2">
-        <v>0.14773573248182</v>
+        <v>0.576093</v>
       </c>
       <c r="O2">
-        <v>0.1297340267774811</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="P2">
-        <v>0.1297340267774811</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="Q2">
-        <v>0.7230928909053731</v>
+        <v>1.155580211935333</v>
       </c>
       <c r="R2">
-        <v>0.7230928909053731</v>
+        <v>10.400221907418</v>
       </c>
       <c r="S2">
-        <v>0.007658628296678432</v>
+        <v>0.009865823230287526</v>
       </c>
       <c r="T2">
-        <v>0.007658628296678432</v>
+        <v>0.009865823230287528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.89450235740602</v>
+        <v>6.017675333333333</v>
       </c>
       <c r="H3">
-        <v>4.89450235740602</v>
+        <v>18.053026</v>
       </c>
       <c r="I3">
-        <v>0.05903330442224272</v>
+        <v>0.06823369140492158</v>
       </c>
       <c r="J3">
-        <v>0.05903330442224272</v>
+        <v>0.0682336914049216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.66241766926095</v>
+        <v>0.6701516666666666</v>
       </c>
       <c r="N3">
-        <v>0.66241766926095</v>
+        <v>2.010455</v>
       </c>
       <c r="O3">
-        <v>0.5817015978334966</v>
+        <v>0.5045871905020536</v>
       </c>
       <c r="P3">
-        <v>0.5817015978334966</v>
+        <v>0.5045871905020536</v>
       </c>
       <c r="Q3">
-        <v>3.242204843785121</v>
+        <v>4.032755154092222</v>
       </c>
       <c r="R3">
-        <v>3.242204843785121</v>
+        <v>36.29479638682999</v>
       </c>
       <c r="S3">
-        <v>0.03433976750780982</v>
+        <v>0.0344298466435935</v>
       </c>
       <c r="T3">
-        <v>0.03433976750780982</v>
+        <v>0.03442984664359351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.89450235740602</v>
+        <v>6.017675333333333</v>
       </c>
       <c r="H4">
-        <v>4.89450235740602</v>
+        <v>18.053026</v>
       </c>
       <c r="I4">
-        <v>0.05903330442224272</v>
+        <v>0.06823369140492158</v>
       </c>
       <c r="J4">
-        <v>0.05903330442224272</v>
+        <v>0.0682336914049216</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.32860515028472</v>
+        <v>0.000161</v>
       </c>
       <c r="N4">
-        <v>0.32860515028472</v>
+        <v>0.000483</v>
       </c>
       <c r="O4">
-        <v>0.2885643753890222</v>
+        <v>0.0001212241074843714</v>
       </c>
       <c r="P4">
-        <v>0.2885643753890222</v>
+        <v>0.0001212241074843714</v>
       </c>
       <c r="Q4">
-        <v>1.608358682724321</v>
+        <v>0.0009688457286666665</v>
       </c>
       <c r="R4">
-        <v>1.608358682724321</v>
+        <v>0.008719611557999999</v>
       </c>
       <c r="S4">
-        <v>0.01703490861775447</v>
+        <v>8.271568340925641E-06</v>
       </c>
       <c r="T4">
-        <v>0.01703490861775447</v>
+        <v>8.271568340925643E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.0299691279536</v>
+        <v>6.017675333333333</v>
       </c>
       <c r="H5">
-        <v>28.0299691279536</v>
+        <v>18.053026</v>
       </c>
       <c r="I5">
-        <v>0.338073532230048</v>
+        <v>0.06823369140492158</v>
       </c>
       <c r="J5">
-        <v>0.338073532230048</v>
+        <v>0.0682336914049216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.14773573248182</v>
+        <v>0.465775</v>
       </c>
       <c r="N5">
-        <v>0.14773573248182</v>
+        <v>1.397325</v>
       </c>
       <c r="O5">
-        <v>0.1297340267774811</v>
+        <v>0.3507028488418204</v>
       </c>
       <c r="P5">
-        <v>0.1297340267774811</v>
+        <v>0.3507028488418204</v>
       </c>
       <c r="Q5">
-        <v>4.141028020561027</v>
+        <v>2.802882728383333</v>
       </c>
       <c r="R5">
-        <v>4.141028020561027</v>
+        <v>25.22594455545</v>
       </c>
       <c r="S5">
-        <v>0.04385964068309068</v>
+        <v>0.02392974996269963</v>
       </c>
       <c r="T5">
-        <v>0.04385964068309068</v>
+        <v>0.02392974996269964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.0299691279536</v>
+        <v>28.298951</v>
       </c>
       <c r="H6">
-        <v>28.0299691279536</v>
+        <v>84.89685299999999</v>
       </c>
       <c r="I6">
-        <v>0.338073532230048</v>
+        <v>0.3208783762262898</v>
       </c>
       <c r="J6">
-        <v>0.338073532230048</v>
+        <v>0.3208783762262898</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.66241766926095</v>
+        <v>0.192031</v>
       </c>
       <c r="N6">
-        <v>0.66241766926095</v>
+        <v>0.576093</v>
       </c>
       <c r="O6">
-        <v>0.5817015978334966</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="P6">
-        <v>0.5817015978334966</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="Q6">
-        <v>18.56754681919541</v>
+        <v>5.434275859480999</v>
       </c>
       <c r="R6">
-        <v>18.56754681919541</v>
+        <v>48.908482735329</v>
       </c>
       <c r="S6">
-        <v>0.1966579138834331</v>
+        <v>0.04639539900433896</v>
       </c>
       <c r="T6">
-        <v>0.1966579138834331</v>
+        <v>0.04639539900433897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.0299691279536</v>
+        <v>28.298951</v>
       </c>
       <c r="H7">
-        <v>28.0299691279536</v>
+        <v>84.89685299999999</v>
       </c>
       <c r="I7">
-        <v>0.338073532230048</v>
+        <v>0.3208783762262898</v>
       </c>
       <c r="J7">
-        <v>0.338073532230048</v>
+        <v>0.3208783762262898</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.32860515028472</v>
+        <v>0.6701516666666666</v>
       </c>
       <c r="N7">
-        <v>0.32860515028472</v>
+        <v>2.010455</v>
       </c>
       <c r="O7">
-        <v>0.2885643753890222</v>
+        <v>0.5045871905020536</v>
       </c>
       <c r="P7">
-        <v>0.2885643753890222</v>
+        <v>0.5045871905020536</v>
       </c>
       <c r="Q7">
-        <v>9.210792217767255</v>
+        <v>18.96458917756833</v>
       </c>
       <c r="R7">
-        <v>9.210792217767255</v>
+        <v>170.681302598115</v>
       </c>
       <c r="S7">
-        <v>0.09755597766352428</v>
+        <v>0.1619111183528845</v>
       </c>
       <c r="T7">
-        <v>0.09755597766352428</v>
+        <v>0.1619111183528845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.8150244146291</v>
+        <v>28.298951</v>
       </c>
       <c r="H8">
-        <v>14.8150244146291</v>
+        <v>84.89685299999999</v>
       </c>
       <c r="I8">
-        <v>0.1786861630515725</v>
+        <v>0.3208783762262898</v>
       </c>
       <c r="J8">
-        <v>0.1786861630515725</v>
+        <v>0.3208783762262898</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.14773573248182</v>
+        <v>0.000161</v>
       </c>
       <c r="N8">
-        <v>0.14773573248182</v>
+        <v>0.000483</v>
       </c>
       <c r="O8">
-        <v>0.1297340267774811</v>
+        <v>0.0001212241074843714</v>
       </c>
       <c r="P8">
-        <v>0.1297340267774811</v>
+        <v>0.0001212241074843714</v>
       </c>
       <c r="Q8">
-        <v>2.188708483631277</v>
+        <v>0.004556131111</v>
       </c>
       <c r="R8">
-        <v>2.188708483631277</v>
+        <v>0.041005179999</v>
       </c>
       <c r="S8">
-        <v>0.02318167546209806</v>
+        <v>3.889819476906631E-05</v>
       </c>
       <c r="T8">
-        <v>0.02318167546209806</v>
+        <v>3.889819476906632E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.8150244146291</v>
+        <v>28.298951</v>
       </c>
       <c r="H9">
-        <v>14.8150244146291</v>
+        <v>84.89685299999999</v>
       </c>
       <c r="I9">
-        <v>0.1786861630515725</v>
+        <v>0.3208783762262898</v>
       </c>
       <c r="J9">
-        <v>0.1786861630515725</v>
+        <v>0.3208783762262898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.66241766926095</v>
+        <v>0.465775</v>
       </c>
       <c r="N9">
-        <v>0.66241766926095</v>
+        <v>1.397325</v>
       </c>
       <c r="O9">
-        <v>0.5817015978334966</v>
+        <v>0.3507028488418204</v>
       </c>
       <c r="P9">
-        <v>0.5817015978334966</v>
+        <v>0.3507028488418204</v>
       </c>
       <c r="Q9">
-        <v>9.81373394278268</v>
+        <v>13.180943902025</v>
       </c>
       <c r="R9">
-        <v>9.81373394278268</v>
+        <v>118.628495118225</v>
       </c>
       <c r="S9">
-        <v>0.1039420265578364</v>
+        <v>0.1125329606742973</v>
       </c>
       <c r="T9">
-        <v>0.1039420265578364</v>
+        <v>0.1125329606742973</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.8150244146291</v>
+        <v>18.27223466666667</v>
       </c>
       <c r="H10">
-        <v>14.8150244146291</v>
+        <v>54.816704</v>
       </c>
       <c r="I10">
-        <v>0.1786861630515725</v>
+        <v>0.2071866547231988</v>
       </c>
       <c r="J10">
-        <v>0.1786861630515725</v>
+        <v>0.2071866547231989</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.32860515028472</v>
+        <v>0.192031</v>
       </c>
       <c r="N10">
-        <v>0.32860515028472</v>
+        <v>0.576093</v>
       </c>
       <c r="O10">
-        <v>0.2885643753890222</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="P10">
-        <v>0.2885643753890222</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="Q10">
-        <v>4.868293324240991</v>
+        <v>3.508835495274666</v>
       </c>
       <c r="R10">
-        <v>4.868293324240991</v>
+        <v>31.579519457472</v>
       </c>
       <c r="S10">
-        <v>0.05156246103163799</v>
+        <v>0.02995685663616699</v>
       </c>
       <c r="T10">
-        <v>0.05156246103163799</v>
+        <v>0.029956856636167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,122 +1092,122 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.3844860436806</v>
+        <v>18.27223466666667</v>
       </c>
       <c r="H11">
-        <v>14.3844860436806</v>
+        <v>54.816704</v>
       </c>
       <c r="I11">
-        <v>0.1734933771743318</v>
+        <v>0.2071866547231988</v>
       </c>
       <c r="J11">
-        <v>0.1734933771743318</v>
+        <v>0.2071866547231989</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.14773573248182</v>
+        <v>0.6701516666666666</v>
       </c>
       <c r="N11">
-        <v>0.14773573248182</v>
+        <v>2.010455</v>
       </c>
       <c r="O11">
-        <v>0.1297340267774811</v>
+        <v>0.5045871905020536</v>
       </c>
       <c r="P11">
-        <v>0.1297340267774811</v>
+        <v>0.5045871905020536</v>
       </c>
       <c r="Q11">
-        <v>2.125102582037671</v>
+        <v>12.24516851559111</v>
       </c>
       <c r="R11">
-        <v>2.125102582037671</v>
+        <v>110.20651664032</v>
       </c>
       <c r="S11">
-        <v>0.02250799444005039</v>
+        <v>0.1045437320162979</v>
       </c>
       <c r="T11">
-        <v>0.02250799444005039</v>
+        <v>0.1045437320162979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.3844860436806</v>
+        <v>18.27223466666667</v>
       </c>
       <c r="H12">
-        <v>14.3844860436806</v>
+        <v>54.816704</v>
       </c>
       <c r="I12">
-        <v>0.1734933771743318</v>
+        <v>0.2071866547231988</v>
       </c>
       <c r="J12">
-        <v>0.1734933771743318</v>
+        <v>0.2071866547231989</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.66241766926095</v>
+        <v>0.000161</v>
       </c>
       <c r="N12">
-        <v>0.66241766926095</v>
+        <v>0.000483</v>
       </c>
       <c r="O12">
-        <v>0.5817015978334966</v>
+        <v>0.0001212241074843714</v>
       </c>
       <c r="P12">
-        <v>0.5817015978334966</v>
+        <v>0.0001212241074843714</v>
       </c>
       <c r="Q12">
-        <v>9.528537718571567</v>
+        <v>0.002941829781333333</v>
       </c>
       <c r="R12">
-        <v>9.528537718571567</v>
+        <v>0.026476468032</v>
       </c>
       <c r="S12">
-        <v>0.1009213747158383</v>
+        <v>2.511601730149239E-05</v>
       </c>
       <c r="T12">
-        <v>0.1009213747158383</v>
+        <v>2.51160173014924E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.3844860436806</v>
+        <v>18.27223466666667</v>
       </c>
       <c r="H13">
-        <v>14.3844860436806</v>
+        <v>54.816704</v>
       </c>
       <c r="I13">
-        <v>0.1734933771743318</v>
+        <v>0.2071866547231988</v>
       </c>
       <c r="J13">
-        <v>0.1734933771743318</v>
+        <v>0.2071866547231989</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.32860515028472</v>
+        <v>0.465775</v>
       </c>
       <c r="N13">
-        <v>0.32860515028472</v>
+        <v>1.397325</v>
       </c>
       <c r="O13">
-        <v>0.2885643753890222</v>
+        <v>0.3507028488418204</v>
       </c>
       <c r="P13">
-        <v>0.2885643753890222</v>
+        <v>0.3507028488418204</v>
       </c>
       <c r="Q13">
-        <v>4.726816198152121</v>
+        <v>8.510750101866666</v>
       </c>
       <c r="R13">
-        <v>4.726816198152121</v>
+        <v>76.5967509168</v>
       </c>
       <c r="S13">
-        <v>0.05006400801844309</v>
+        <v>0.07266095005343243</v>
       </c>
       <c r="T13">
-        <v>0.05006400801844309</v>
+        <v>0.07266095005343244</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.5786943133397</v>
+        <v>14.43477333333333</v>
       </c>
       <c r="H14">
-        <v>13.5786943133397</v>
+        <v>43.30432</v>
       </c>
       <c r="I14">
-        <v>0.1637746059807369</v>
+        <v>0.1636741456739703</v>
       </c>
       <c r="J14">
-        <v>0.1637746059807369</v>
+        <v>0.1636741456739704</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.14773573248182</v>
+        <v>0.192031</v>
       </c>
       <c r="N14">
-        <v>0.14773573248182</v>
+        <v>0.576093</v>
       </c>
       <c r="O14">
-        <v>0.1297340267774811</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="P14">
-        <v>0.1297340267774811</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="Q14">
-        <v>2.006058350527964</v>
+        <v>2.771923957973333</v>
       </c>
       <c r="R14">
-        <v>2.006058350527964</v>
+        <v>24.94731562176</v>
       </c>
       <c r="S14">
-        <v>0.02124713911777634</v>
+        <v>0.02366543792867771</v>
       </c>
       <c r="T14">
-        <v>0.02124713911777634</v>
+        <v>0.02366543792867771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.5786943133397</v>
+        <v>14.43477333333333</v>
       </c>
       <c r="H15">
-        <v>13.5786943133397</v>
+        <v>43.30432</v>
       </c>
       <c r="I15">
-        <v>0.1637746059807369</v>
+        <v>0.1636741456739703</v>
       </c>
       <c r="J15">
-        <v>0.1637746059807369</v>
+        <v>0.1636741456739704</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.66241766926095</v>
+        <v>0.6701516666666666</v>
       </c>
       <c r="N15">
-        <v>0.66241766926095</v>
+        <v>2.010455</v>
       </c>
       <c r="O15">
-        <v>0.5817015978334966</v>
+        <v>0.5045871905020536</v>
       </c>
       <c r="P15">
-        <v>0.5817015978334966</v>
+        <v>0.5045871905020536</v>
       </c>
       <c r="Q15">
-        <v>8.9947670386494</v>
+        <v>9.673487407288889</v>
       </c>
       <c r="R15">
-        <v>8.9947670386494</v>
+        <v>87.0613866656</v>
       </c>
       <c r="S15">
-        <v>0.09526794998354597</v>
+        <v>0.08258787732345255</v>
       </c>
       <c r="T15">
-        <v>0.09526794998354597</v>
+        <v>0.08258787732345256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.5786943133397</v>
+        <v>14.43477333333333</v>
       </c>
       <c r="H16">
-        <v>13.5786943133397</v>
+        <v>43.30432</v>
       </c>
       <c r="I16">
-        <v>0.1637746059807369</v>
+        <v>0.1636741456739703</v>
       </c>
       <c r="J16">
-        <v>0.1637746059807369</v>
+        <v>0.1636741456739704</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.32860515028472</v>
+        <v>0.000161</v>
       </c>
       <c r="N16">
-        <v>0.32860515028472</v>
+        <v>0.000483</v>
       </c>
       <c r="O16">
-        <v>0.2885643753890222</v>
+        <v>0.0001212241074843714</v>
       </c>
       <c r="P16">
-        <v>0.2885643753890222</v>
+        <v>0.0001212241074843714</v>
       </c>
       <c r="Q16">
-        <v>4.462028885505265</v>
+        <v>0.002323998506666666</v>
       </c>
       <c r="R16">
-        <v>4.462028885505265</v>
+        <v>0.02091598656</v>
       </c>
       <c r="S16">
-        <v>0.04725951687941455</v>
+        <v>1.984125222759404E-05</v>
       </c>
       <c r="T16">
-        <v>0.04725951687941455</v>
+        <v>1.984125222759404E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.20818914868655</v>
+        <v>14.43477333333333</v>
       </c>
       <c r="H17">
-        <v>7.20818914868655</v>
+        <v>43.30432</v>
       </c>
       <c r="I17">
-        <v>0.08693901714106801</v>
+        <v>0.1636741456739703</v>
       </c>
       <c r="J17">
-        <v>0.08693901714106801</v>
+        <v>0.1636741456739704</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.14773573248182</v>
+        <v>0.465775</v>
       </c>
       <c r="N17">
-        <v>0.14773573248182</v>
+        <v>1.397325</v>
       </c>
       <c r="O17">
-        <v>0.1297340267774811</v>
+        <v>0.3507028488418204</v>
       </c>
       <c r="P17">
-        <v>0.1297340267774811</v>
+        <v>0.3507028488418204</v>
       </c>
       <c r="Q17">
-        <v>1.064907103748714</v>
+        <v>6.723356549333333</v>
       </c>
       <c r="R17">
-        <v>1.064907103748714</v>
+        <v>60.51020894400001</v>
       </c>
       <c r="S17">
-        <v>0.01127894877778721</v>
+        <v>0.05740098916961252</v>
       </c>
       <c r="T17">
-        <v>0.01127894877778721</v>
+        <v>0.05740098916961252</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.20818914868655</v>
+        <v>13.69801333333333</v>
       </c>
       <c r="H18">
-        <v>7.20818914868655</v>
+        <v>41.09404</v>
       </c>
       <c r="I18">
-        <v>0.08693901714106801</v>
+        <v>0.155320113311835</v>
       </c>
       <c r="J18">
-        <v>0.08693901714106801</v>
+        <v>0.1553201133118351</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.66241766926095</v>
+        <v>0.192031</v>
       </c>
       <c r="N18">
-        <v>0.66241766926095</v>
+        <v>0.576093</v>
       </c>
       <c r="O18">
-        <v>0.5817015978334966</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="P18">
-        <v>0.5817015978334966</v>
+        <v>0.1445887365486417</v>
       </c>
       <c r="Q18">
-        <v>4.774831855465016</v>
+        <v>2.630443198413333</v>
       </c>
       <c r="R18">
-        <v>4.774831855465016</v>
+        <v>23.67398878572</v>
       </c>
       <c r="S18">
-        <v>0.05057256518503302</v>
+        <v>0.0224575389443501</v>
       </c>
       <c r="T18">
-        <v>0.05057256518503302</v>
+        <v>0.0224575389443501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>13.69801333333333</v>
+      </c>
+      <c r="H19">
+        <v>41.09404</v>
+      </c>
+      <c r="I19">
+        <v>0.155320113311835</v>
+      </c>
+      <c r="J19">
+        <v>0.1553201133118351</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6701516666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.010455</v>
+      </c>
+      <c r="O19">
+        <v>0.5045871905020536</v>
+      </c>
+      <c r="P19">
+        <v>0.5045871905020536</v>
+      </c>
+      <c r="Q19">
+        <v>9.179746465355555</v>
+      </c>
+      <c r="R19">
+        <v>82.6177181882</v>
+      </c>
+      <c r="S19">
+        <v>0.07837253960447946</v>
+      </c>
+      <c r="T19">
+        <v>0.07837253960447947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>13.69801333333333</v>
+      </c>
+      <c r="H20">
+        <v>41.09404</v>
+      </c>
+      <c r="I20">
+        <v>0.155320113311835</v>
+      </c>
+      <c r="J20">
+        <v>0.1553201133118351</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.000161</v>
+      </c>
+      <c r="N20">
+        <v>0.000483</v>
+      </c>
+      <c r="O20">
+        <v>0.0001212241074843714</v>
+      </c>
+      <c r="P20">
+        <v>0.0001212241074843714</v>
+      </c>
+      <c r="Q20">
+        <v>0.002205380146666666</v>
+      </c>
+      <c r="R20">
+        <v>0.01984842132</v>
+      </c>
+      <c r="S20">
+        <v>1.882854211059863E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.882854211059864E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.69801333333333</v>
+      </c>
+      <c r="H21">
+        <v>41.09404</v>
+      </c>
+      <c r="I21">
+        <v>0.155320113311835</v>
+      </c>
+      <c r="J21">
+        <v>0.1553201133118351</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.465775</v>
+      </c>
+      <c r="N21">
+        <v>1.397325</v>
+      </c>
+      <c r="O21">
+        <v>0.3507028488418204</v>
+      </c>
+      <c r="P21">
+        <v>0.3507028488418204</v>
+      </c>
+      <c r="Q21">
+        <v>6.380192160333333</v>
+      </c>
+      <c r="R21">
+        <v>57.421729443</v>
+      </c>
+      <c r="S21">
+        <v>0.0544712062208949</v>
+      </c>
+      <c r="T21">
+        <v>0.05447120622089491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.20818914868655</v>
-      </c>
-      <c r="H19">
-        <v>7.20818914868655</v>
-      </c>
-      <c r="I19">
-        <v>0.08693901714106801</v>
-      </c>
-      <c r="J19">
-        <v>0.08693901714106801</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.32860515028472</v>
-      </c>
-      <c r="N19">
-        <v>0.32860515028472</v>
-      </c>
-      <c r="O19">
-        <v>0.2885643753890222</v>
-      </c>
-      <c r="P19">
-        <v>0.2885643753890222</v>
-      </c>
-      <c r="Q19">
-        <v>2.368648078484831</v>
-      </c>
-      <c r="R19">
-        <v>2.368648078484831</v>
-      </c>
-      <c r="S19">
-        <v>0.02508750317824779</v>
-      </c>
-      <c r="T19">
-        <v>0.02508750317824779</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.470493333333334</v>
+      </c>
+      <c r="H22">
+        <v>22.41148</v>
+      </c>
+      <c r="I22">
+        <v>0.08470701865978436</v>
+      </c>
+      <c r="J22">
+        <v>0.08470701865978437</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.192031</v>
+      </c>
+      <c r="N22">
+        <v>0.576093</v>
+      </c>
+      <c r="O22">
+        <v>0.1445887365486417</v>
+      </c>
+      <c r="P22">
+        <v>0.1445887365486417</v>
+      </c>
+      <c r="Q22">
+        <v>1.434566305293333</v>
+      </c>
+      <c r="R22">
+        <v>12.91109674764</v>
+      </c>
+      <c r="S22">
+        <v>0.01224768080482044</v>
+      </c>
+      <c r="T22">
+        <v>0.01224768080482044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.470493333333334</v>
+      </c>
+      <c r="H23">
+        <v>22.41148</v>
+      </c>
+      <c r="I23">
+        <v>0.08470701865978436</v>
+      </c>
+      <c r="J23">
+        <v>0.08470701865978437</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6701516666666666</v>
+      </c>
+      <c r="N23">
+        <v>2.010455</v>
+      </c>
+      <c r="O23">
+        <v>0.5045871905020536</v>
+      </c>
+      <c r="P23">
+        <v>0.5045871905020536</v>
+      </c>
+      <c r="Q23">
+        <v>5.006363558155555</v>
+      </c>
+      <c r="R23">
+        <v>45.0572720234</v>
+      </c>
+      <c r="S23">
+        <v>0.04274207656134562</v>
+      </c>
+      <c r="T23">
+        <v>0.04274207656134563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.470493333333334</v>
+      </c>
+      <c r="H24">
+        <v>22.41148</v>
+      </c>
+      <c r="I24">
+        <v>0.08470701865978436</v>
+      </c>
+      <c r="J24">
+        <v>0.08470701865978437</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.000161</v>
+      </c>
+      <c r="N24">
+        <v>0.000483</v>
+      </c>
+      <c r="O24">
+        <v>0.0001212241074843714</v>
+      </c>
+      <c r="P24">
+        <v>0.0001212241074843714</v>
+      </c>
+      <c r="Q24">
+        <v>0.001202749426666667</v>
+      </c>
+      <c r="R24">
+        <v>0.01082474484</v>
+      </c>
+      <c r="S24">
+        <v>1.026853273469435E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.026853273469435E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.470493333333334</v>
+      </c>
+      <c r="H25">
+        <v>22.41148</v>
+      </c>
+      <c r="I25">
+        <v>0.08470701865978436</v>
+      </c>
+      <c r="J25">
+        <v>0.08470701865978437</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.465775</v>
+      </c>
+      <c r="N25">
+        <v>1.397325</v>
+      </c>
+      <c r="O25">
+        <v>0.3507028488418204</v>
+      </c>
+      <c r="P25">
+        <v>0.3507028488418204</v>
+      </c>
+      <c r="Q25">
+        <v>3.479569032333333</v>
+      </c>
+      <c r="R25">
+        <v>31.316121291</v>
+      </c>
+      <c r="S25">
+        <v>0.02970699276088361</v>
+      </c>
+      <c r="T25">
+        <v>0.02970699276088362</v>
       </c>
     </row>
   </sheetData>
